--- a/compiled_data/304_307_LLQL_fitting.xlsx
+++ b/compiled_data/304_307_LLQL_fitting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anumglasgow/Dropbox/Research/Data/HDX/20200922_compile_rates/compiled_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3C4C9F-61ED-A347-A61D-B74CA70511AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C5977-1608-2340-9DDE-D4401818C774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="600" windowWidth="21940" windowHeight="13900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Peptide SD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -560,8 +559,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1443,7 @@
       <c r="B27" s="17">
         <v>486.61</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="17">
         <v>486.60300000000001</v>
       </c>
       <c r="D27" s="17"/>
@@ -1564,7 +1563,7 @@
       <c r="B28" s="17">
         <v>486.97800000000001</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="17">
         <v>486.79700000000003</v>
       </c>
       <c r="D28" s="17"/>
@@ -1684,7 +1683,7 @@
       <c r="B29" s="17">
         <v>487</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="17">
         <v>486.92599999999999</v>
       </c>
       <c r="D29" s="17"/>
@@ -1804,7 +1803,7 @@
       <c r="B30" s="17">
         <v>486.988</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="17">
         <v>487.06400000000002</v>
       </c>
       <c r="D30" s="17"/>
@@ -1924,7 +1923,7 @@
       <c r="B31" s="17">
         <v>487.238</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="17">
         <v>487.16699999999997</v>
       </c>
       <c r="D31" s="17"/>
@@ -2044,7 +2043,7 @@
       <c r="B32" s="17">
         <v>487.60899999999998</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>487.30200000000002</v>
       </c>
       <c r="D32" s="17"/>
@@ -2164,7 +2163,7 @@
       <c r="B33" s="17">
         <v>487.79399999999998</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="17">
         <v>487.72699999999998</v>
       </c>
       <c r="D33" s="17"/>
@@ -2284,7 +2283,7 @@
       <c r="B34" s="17">
         <v>487.93200000000002</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="17">
         <v>487.67399999999998</v>
       </c>
       <c r="D34" s="17"/>
@@ -2404,7 +2403,7 @@
       <c r="B35" s="17">
         <v>487.82100000000003</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="17">
         <v>487.608</v>
       </c>
       <c r="D35" s="17"/>
